--- a/我的创作/财务/股票/SEAP交易系统/交易分析/2022-04/技术面分析20220425.xlsx
+++ b/我的创作/财务/股票/SEAP交易系统/交易分析/2022-04/技术面分析20220425.xlsx
@@ -978,7 +978,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -994,6 +994,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1308,157 +1314,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1513,6 +1522,23 @@
     <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
     <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1843,15 +1869,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.94117647058824" defaultRowHeight="14.8" outlineLevelCol="6"/>
@@ -1886,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" hidden="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1909,7 +1935,7 @@
         <v>3.199</v>
       </c>
     </row>
-    <row r="3" ht="28" spans="1:7">
+    <row r="3" ht="28" hidden="1" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1932,7 +1958,7 @@
         <v>7.774</v>
       </c>
     </row>
-    <row r="4" ht="28" spans="1:7">
+    <row r="4" ht="28" hidden="1" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1955,7 +1981,7 @@
         <v>9.383</v>
       </c>
     </row>
-    <row r="5" ht="41" spans="1:7">
+    <row r="5" ht="41" hidden="1" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1978,7 +2004,7 @@
         <v>12.68</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" hidden="1" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2001,7 +2027,7 @@
         <v>7.372</v>
       </c>
     </row>
-    <row r="7" ht="41" spans="1:7">
+    <row r="7" ht="41" hidden="1" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2024,7 +2050,7 @@
         <v>3.297</v>
       </c>
     </row>
-    <row r="8" ht="28" spans="1:7">
+    <row r="8" ht="28" hidden="1" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -2047,7 +2073,7 @@
         <v>2.109</v>
       </c>
     </row>
-    <row r="9" ht="55" spans="1:7">
+    <row r="9" ht="55" hidden="1" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -2070,7 +2096,7 @@
         <v>6.461</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" hidden="1" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -2093,7 +2119,7 @@
         <v>77.077</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:7">
+    <row r="11" ht="28" hidden="1" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -2116,7 +2142,7 @@
         <v>8.034</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:7">
+    <row r="12" ht="28" hidden="1" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2139,7 +2165,7 @@
         <v>6.703</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" hidden="1" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -2162,7 +2188,7 @@
         <v>37.759</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:7">
+    <row r="14" ht="28" hidden="1" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2185,7 +2211,7 @@
         <v>4.207</v>
       </c>
     </row>
-    <row r="15" ht="28" spans="1:7">
+    <row r="15" ht="28" hidden="1" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
@@ -2208,7 +2234,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="16" ht="28" spans="1:7">
+    <row r="16" ht="28" hidden="1" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
@@ -2231,7 +2257,7 @@
         <v>4.404</v>
       </c>
     </row>
-    <row r="17" ht="41" spans="1:7">
+    <row r="17" ht="41" hidden="1" spans="1:7">
       <c r="A17" s="2" t="s">
         <v>51</v>
       </c>
@@ -2254,7 +2280,7 @@
         <v>4.269</v>
       </c>
     </row>
-    <row r="18" ht="41" spans="1:7">
+    <row r="18" ht="41" hidden="1" spans="1:7">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -2277,7 +2303,7 @@
         <v>5.443</v>
       </c>
     </row>
-    <row r="19" ht="28" spans="1:7">
+    <row r="19" ht="28" hidden="1" spans="1:7">
       <c r="A19" s="2" t="s">
         <v>57</v>
       </c>
@@ -2300,7 +2326,7 @@
         <v>12.408</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" hidden="1" spans="1:7">
       <c r="A20" s="2" t="s">
         <v>59</v>
       </c>
@@ -2323,7 +2349,7 @@
         <v>13.166</v>
       </c>
     </row>
-    <row r="21" ht="28" spans="1:7">
+    <row r="21" ht="28" hidden="1" spans="1:7">
       <c r="A21" s="2" t="s">
         <v>62</v>
       </c>
@@ -2346,7 +2372,7 @@
         <v>7.034</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" hidden="1" spans="1:7">
       <c r="A22" s="2" t="s">
         <v>64</v>
       </c>
@@ -2369,7 +2395,7 @@
         <v>38.002</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" hidden="1" spans="1:7">
       <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
@@ -2392,7 +2418,7 @@
         <v>15.363</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" hidden="1" spans="1:7">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -2415,7 +2441,7 @@
         <v>10.548</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" hidden="1" spans="1:7">
       <c r="A25" s="2" t="s">
         <v>70</v>
       </c>
@@ -2438,7 +2464,7 @@
         <v>5.596</v>
       </c>
     </row>
-    <row r="26" ht="41" spans="1:7">
+    <row r="26" ht="41" hidden="1" spans="1:7">
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
@@ -2461,7 +2487,7 @@
         <v>3.091</v>
       </c>
     </row>
-    <row r="27" ht="28" spans="1:7">
+    <row r="27" ht="28" hidden="1" spans="1:7">
       <c r="A27" s="2" t="s">
         <v>76</v>
       </c>
@@ -2484,7 +2510,7 @@
         <v>2.976</v>
       </c>
     </row>
-    <row r="28" ht="28" spans="1:7">
+    <row r="28" ht="28" hidden="1" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2507,7 +2533,7 @@
         <v>3.147</v>
       </c>
     </row>
-    <row r="29" ht="28" spans="1:7">
+    <row r="29" ht="28" hidden="1" spans="1:7">
       <c r="A29" s="2" t="s">
         <v>80</v>
       </c>
@@ -2530,7 +2556,7 @@
         <v>6.389</v>
       </c>
     </row>
-    <row r="30" ht="28" spans="1:7">
+    <row r="30" ht="28" hidden="1" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>83</v>
       </c>
@@ -2553,7 +2579,7 @@
         <v>8.263</v>
       </c>
     </row>
-    <row r="31" ht="41" spans="1:7">
+    <row r="31" ht="41" hidden="1" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>85</v>
       </c>
@@ -2576,7 +2602,7 @@
         <v>11.696</v>
       </c>
     </row>
-    <row r="32" ht="28" spans="1:7">
+    <row r="32" ht="28" hidden="1" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>88</v>
       </c>
@@ -2599,7 +2625,7 @@
         <v>3.903</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" hidden="1" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -2622,7 +2648,7 @@
         <v>36.527</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" hidden="1" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -2645,7 +2671,7 @@
         <v>7.596</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" hidden="1" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -2668,7 +2694,7 @@
         <v>17.65</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" hidden="1" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -2691,7 +2717,7 @@
         <v>17.563</v>
       </c>
     </row>
-    <row r="37" ht="28" spans="1:7">
+    <row r="37" ht="28" hidden="1" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
@@ -2714,7 +2740,7 @@
         <v>50.526</v>
       </c>
     </row>
-    <row r="38" ht="55" spans="1:7">
+    <row r="38" ht="55" hidden="1" spans="1:7">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -2737,7 +2763,7 @@
         <v>5.771</v>
       </c>
     </row>
-    <row r="39" ht="28" spans="1:7">
+    <row r="39" ht="28" hidden="1" spans="1:7">
       <c r="A39" s="2" t="s">
         <v>107</v>
       </c>
@@ -2760,7 +2786,7 @@
         <v>7.274</v>
       </c>
     </row>
-    <row r="40" ht="28" spans="1:7">
+    <row r="40" ht="28" hidden="1" spans="1:7">
       <c r="A40" s="2" t="s">
         <v>110</v>
       </c>
@@ -2783,7 +2809,7 @@
         <v>4.652</v>
       </c>
     </row>
-    <row r="41" ht="28" spans="1:7">
+    <row r="41" ht="28" hidden="1" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
@@ -2806,7 +2832,7 @@
         <v>9.771</v>
       </c>
     </row>
-    <row r="42" ht="28" spans="1:7">
+    <row r="42" ht="28" hidden="1" spans="1:7">
       <c r="A42" s="2" t="s">
         <v>115</v>
       </c>
@@ -2829,7 +2855,7 @@
         <v>12.902</v>
       </c>
     </row>
-    <row r="43" ht="28" spans="1:7">
+    <row r="43" ht="28" hidden="1" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>117</v>
       </c>
@@ -2852,7 +2878,7 @@
         <v>31.263</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" hidden="1" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>120</v>
       </c>
@@ -2875,7 +2901,7 @@
         <v>9.576</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" hidden="1" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>123</v>
       </c>
@@ -2898,7 +2924,7 @@
         <v>9.479</v>
       </c>
     </row>
-    <row r="46" ht="28" spans="1:7">
+    <row r="46" ht="28" hidden="1" spans="1:7">
       <c r="A46" s="2" t="s">
         <v>126</v>
       </c>
@@ -2921,7 +2947,7 @@
         <v>6.907</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" hidden="1" spans="1:7">
       <c r="A47" s="2" t="s">
         <v>129</v>
       </c>
@@ -2944,7 +2970,7 @@
         <v>5.092</v>
       </c>
     </row>
-    <row r="48" ht="41" spans="1:7">
+    <row r="48" ht="41" hidden="1" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>131</v>
       </c>
@@ -2967,7 +2993,7 @@
         <v>21.18</v>
       </c>
     </row>
-    <row r="49" ht="28" spans="1:7">
+    <row r="49" ht="28" hidden="1" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
@@ -2990,7 +3016,7 @@
         <v>8.397</v>
       </c>
     </row>
-    <row r="50" ht="55" spans="1:7">
+    <row r="50" ht="55" hidden="1" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>136</v>
       </c>
@@ -3013,7 +3039,7 @@
         <v>22.297</v>
       </c>
     </row>
-    <row r="51" ht="28" spans="1:7">
+    <row r="51" ht="28" hidden="1" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>139</v>
       </c>
@@ -3036,7 +3062,7 @@
         <v>14.101</v>
       </c>
     </row>
-    <row r="52" ht="55" spans="1:7">
+    <row r="52" ht="55" hidden="1" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>141</v>
       </c>
@@ -3059,7 +3085,7 @@
         <v>8.848</v>
       </c>
     </row>
-    <row r="53" ht="41" spans="1:7">
+    <row r="53" ht="41" hidden="1" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
@@ -3082,7 +3108,7 @@
         <v>10.813</v>
       </c>
     </row>
-    <row r="54" ht="55" spans="1:7">
+    <row r="54" ht="55" hidden="1" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>146</v>
       </c>
@@ -3105,7 +3131,7 @@
         <v>4.999</v>
       </c>
     </row>
-    <row r="55" ht="41" spans="1:7">
+    <row r="55" ht="41" hidden="1" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>149</v>
       </c>
@@ -3128,7 +3154,7 @@
         <v>12.289</v>
       </c>
     </row>
-    <row r="56" ht="28" spans="1:7">
+    <row r="56" ht="28" hidden="1" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>151</v>
       </c>
@@ -3151,7 +3177,7 @@
         <v>7.072</v>
       </c>
     </row>
-    <row r="57" ht="41" spans="1:7">
+    <row r="57" ht="41" hidden="1" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>154</v>
       </c>
@@ -3174,7 +3200,7 @@
         <v>13.289</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" hidden="1" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>156</v>
       </c>
@@ -3197,7 +3223,7 @@
         <v>4.306</v>
       </c>
     </row>
-    <row r="59" ht="28" spans="1:7">
+    <row r="59" ht="28" hidden="1" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>159</v>
       </c>
@@ -3220,7 +3246,7 @@
         <v>42.584</v>
       </c>
     </row>
-    <row r="60" ht="41" spans="1:7">
+    <row r="60" ht="41" hidden="1" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>162</v>
       </c>
@@ -3243,7 +3269,7 @@
         <v>14.12</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" hidden="1" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>164</v>
       </c>
@@ -3266,7 +3292,7 @@
         <v>10.167</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" hidden="1" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>167</v>
       </c>
@@ -3289,7 +3315,7 @@
         <v>8.208</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" hidden="1" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>169</v>
       </c>
@@ -3312,7 +3338,7 @@
         <v>4.603</v>
       </c>
     </row>
-    <row r="64" ht="41" spans="1:7">
+    <row r="64" ht="41" hidden="1" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>172</v>
       </c>
@@ -3335,7 +3361,7 @@
         <v>9.091</v>
       </c>
     </row>
-    <row r="65" ht="28" spans="1:7">
+    <row r="65" ht="28" hidden="1" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>174</v>
       </c>
@@ -3358,7 +3384,7 @@
         <v>9.588</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" hidden="1" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>176</v>
       </c>
@@ -3381,11 +3407,11 @@
         <v>4.846</v>
       </c>
     </row>
-    <row r="67" ht="41" spans="1:7">
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>180</v>
       </c>
       <c r="C67" s="2" t="s">
@@ -3404,7 +3430,7 @@
         <v>9.961</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" hidden="1" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>181</v>
       </c>
@@ -3431,7 +3457,7 @@
       <c r="A69" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -3450,7 +3476,7 @@
         <v>20.783</v>
       </c>
     </row>
-    <row r="70" ht="55" spans="1:7">
+    <row r="70" hidden="1" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>185</v>
       </c>
@@ -3473,7 +3499,7 @@
         <v>3.536</v>
       </c>
     </row>
-    <row r="71" ht="28" spans="1:7">
+    <row r="71" ht="28" hidden="1" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>188</v>
       </c>
@@ -3496,7 +3522,7 @@
         <v>9.265</v>
       </c>
     </row>
-    <row r="72" ht="41" spans="1:7">
+    <row r="72" ht="41" hidden="1" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>190</v>
       </c>
@@ -3519,7 +3545,7 @@
         <v>4.409</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" hidden="1" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>193</v>
       </c>
@@ -3542,11 +3568,11 @@
         <v>4.901</v>
       </c>
     </row>
-    <row r="74" ht="28" spans="1:7">
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>196</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -3565,7 +3591,7 @@
         <v>10.681</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" hidden="1" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>197</v>
       </c>
@@ -3588,7 +3614,7 @@
         <v>3.478</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" hidden="1" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>200</v>
       </c>
@@ -3611,7 +3637,7 @@
         <v>34.263</v>
       </c>
     </row>
-    <row r="77" ht="28" spans="1:7">
+    <row r="77" ht="28" hidden="1" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>202</v>
       </c>
@@ -3634,7 +3660,7 @@
         <v>42.316</v>
       </c>
     </row>
-    <row r="78" ht="28" spans="1:7">
+    <row r="78" ht="28" hidden="1" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>204</v>
       </c>
@@ -3657,7 +3683,7 @@
         <v>7.153</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" hidden="1" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>206</v>
       </c>
@@ -3680,7 +3706,7 @@
         <v>5.187</v>
       </c>
     </row>
-    <row r="80" ht="28" spans="1:7">
+    <row r="80" ht="28" hidden="1" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>209</v>
       </c>
@@ -3703,7 +3729,7 @@
         <v>5.416</v>
       </c>
     </row>
-    <row r="81" ht="28" spans="1:7">
+    <row r="81" ht="28" hidden="1" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>212</v>
       </c>
@@ -3726,7 +3752,7 @@
         <v>16.229</v>
       </c>
     </row>
-    <row r="82" ht="28" spans="1:7">
+    <row r="82" ht="28" hidden="1" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>215</v>
       </c>
@@ -3749,7 +3775,7 @@
         <v>4.624</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" hidden="1" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>218</v>
       </c>
@@ -3776,7 +3802,7 @@
       <c r="A84" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>221</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3795,7 +3821,7 @@
         <v>10.625</v>
       </c>
     </row>
-    <row r="85" ht="28" spans="1:7">
+    <row r="85" hidden="1" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>222</v>
       </c>
@@ -3818,7 +3844,7 @@
         <v>8.55</v>
       </c>
     </row>
-    <row r="86" ht="41" spans="1:7">
+    <row r="86" ht="41" hidden="1" spans="1:7">
       <c r="A86" s="2" t="s">
         <v>224</v>
       </c>
@@ -3841,7 +3867,7 @@
         <v>13.639</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" hidden="1" spans="1:7">
       <c r="A87" s="2" t="s">
         <v>226</v>
       </c>
@@ -3864,7 +3890,7 @@
         <v>9.263</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" hidden="1" spans="1:7">
       <c r="A88" s="2" t="s">
         <v>229</v>
       </c>
@@ -3887,7 +3913,7 @@
         <v>3.749</v>
       </c>
     </row>
-    <row r="89" ht="28" spans="1:7">
+    <row r="89" ht="28" hidden="1" spans="1:7">
       <c r="A89" s="2" t="s">
         <v>231</v>
       </c>
@@ -3910,7 +3936,7 @@
         <v>12.199</v>
       </c>
     </row>
-    <row r="90" ht="28" spans="1:7">
+    <row r="90" ht="28" hidden="1" spans="1:7">
       <c r="A90" s="2" t="s">
         <v>233</v>
       </c>
@@ -3933,7 +3959,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="91" ht="28" spans="1:7">
+    <row r="91" ht="28" hidden="1" spans="1:7">
       <c r="A91" s="2" t="s">
         <v>235</v>
       </c>
@@ -3956,7 +3982,7 @@
         <v>6.217</v>
       </c>
     </row>
-    <row r="92" ht="28" spans="1:7">
+    <row r="92" hidden="1" spans="1:7">
       <c r="A92" s="2" t="s">
         <v>238</v>
       </c>
@@ -3983,7 +4009,7 @@
       <c r="A93" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -4002,7 +4028,7 @@
         <v>23.189</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" hidden="1" spans="1:7">
       <c r="A94" s="2" t="s">
         <v>243</v>
       </c>
@@ -4025,7 +4051,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="95" ht="28" spans="1:7">
+    <row r="95" ht="28" hidden="1" spans="1:7">
       <c r="A95" s="2" t="s">
         <v>246</v>
       </c>
@@ -4048,7 +4074,7 @@
         <v>10.831</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" hidden="1" spans="1:7">
       <c r="A96" s="2" t="s">
         <v>249</v>
       </c>
@@ -4071,7 +4097,7 @@
         <v>9.892</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" hidden="1" spans="1:7">
       <c r="A97" s="2" t="s">
         <v>251</v>
       </c>
@@ -4094,7 +4120,7 @@
         <v>7.145</v>
       </c>
     </row>
-    <row r="98" ht="28" spans="1:7">
+    <row r="98" ht="28" hidden="1" spans="1:7">
       <c r="A98" s="2" t="s">
         <v>254</v>
       </c>
@@ -4117,7 +4143,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="99" ht="55" spans="1:7">
+    <row r="99" hidden="1" spans="1:7">
       <c r="A99" s="2" t="s">
         <v>256</v>
       </c>
@@ -4141,6 +4167,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B99">
+    <filterColumn colId="0">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="B$1:B$1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
